--- a/spaced-repetition/decks2/temp.xlsx
+++ b/spaced-repetition/decks2/temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\GitHub\dojo-hacks2020\decks2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanay/Documents/Programming/Projects/dojo-hacks2020/spaced-repetition/decks2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4DACEC02-853C-DC48-A066-B2A178AB0A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{682692BE-2B97-4B3F-825E-7EFEF5B64D7F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E27518-57F7-CD42-A464-3679282135E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="2840" windowWidth="14990" windowHeight="7360" xr2:uid="{A1816871-93DD-2D4F-ACAF-EACA91B0B6C5}"/>
+    <workbookView xWindow="1480" yWindow="2840" windowWidth="15000" windowHeight="7360" xr2:uid="{A1816871-93DD-2D4F-ACAF-EACA91B0B6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Pinyin</t>
   </si>
@@ -33,22 +33,28 @@
     <t>Character</t>
   </si>
   <si>
-    <t>me</t>
-  </si>
-  <si>
     <t>shang</t>
   </si>
   <si>
     <t>yi</t>
   </si>
   <si>
-    <t>temp1</t>
-  </si>
-  <si>
-    <t>temp2</t>
-  </si>
-  <si>
-    <t>temp3</t>
+    <t>ren</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>zhong</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>一</t>
   </si>
 </sst>
 </file>
@@ -400,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00435FF1-6EA9-C142-B144-5D764C5E4D2A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,28 +422,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
